--- a/Team-Data/2013-14/3-10-2013-14.xlsx
+++ b/Team-Data/2013-14/3-10-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
         <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.435</v>
+        <v>0.426</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,7 +751,7 @@
         <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
@@ -696,64 +763,64 @@
         <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P2" t="n">
         <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC2" t="n">
         <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -798,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>25</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -959,10 +1026,10 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
@@ -974,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>24</v>
@@ -986,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,10 +1115,10 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
         <v>8.1</v>
@@ -1060,28 +1127,28 @@
         <v>22.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
         <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
         <v>8.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.5</v>
@@ -1096,25 +1163,25 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1132,22 +1199,22 @@
         <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>11</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1165,16 +1232,16 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.469</v>
+        <v>0.46</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1236,25 +1303,25 @@
         <v>0.438</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
         <v>32.7</v>
@@ -1269,7 +1336,7 @@
         <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.1</v>
@@ -1284,13 +1351,13 @@
         <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1314,13 +1381,13 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1332,10 +1399,10 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1496,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1505,7 +1572,7 @@
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
@@ -1529,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
@@ -1699,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1872,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1964,25 +2031,25 @@
         <v>0.446</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O9" t="n">
         <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S9" t="n">
         <v>32.9</v>
@@ -1991,13 +2058,13 @@
         <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.7</v>
@@ -2012,28 +2079,28 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2069,13 +2136,13 @@
         <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2254,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2412,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2448,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2585,16 +2652,16 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2770,19 +2837,19 @@
         <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2800,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,16 +2935,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N14" t="n">
         <v>0.351</v>
@@ -2904,19 +2971,19 @@
         <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
         <v>23.9</v>
@@ -2946,10 +3013,10 @@
         <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3152,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3310,7 +3377,7 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3331,7 +3398,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3423,37 +3490,37 @@
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
         <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3462,22 +3529,22 @@
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3507,13 +3574,13 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,19 +3595,19 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
         <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>0.206</v>
+        <v>0.194</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3599,40 +3666,40 @@
         <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
         <v>21.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
         <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
@@ -3641,22 +3708,22 @@
         <v>5.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>20.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3692,13 +3759,13 @@
         <v>27</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3722,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -4059,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P21" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
@@ -4181,7 +4248,7 @@
         <v>13.1</v>
       </c>
       <c r="W21" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.6</v>
@@ -4193,13 +4260,13 @@
         <v>22.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4211,13 +4278,13 @@
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4226,13 +4293,13 @@
         <v>20</v>
       </c>
       <c r="AL21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM21" t="n">
         <v>5</v>
       </c>
-      <c r="AM21" t="n">
-        <v>4</v>
-      </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4262,16 +4329,16 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
@@ -4405,7 +4472,7 @@
         <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4420,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>0.292</v>
+        <v>0.297</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J23" t="n">
         <v>83.2</v>
@@ -4512,25 +4579,25 @@
         <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
         <v>19.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P23" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S23" t="n">
         <v>32.7</v>
@@ -4539,7 +4606,7 @@
         <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.5</v>
@@ -4551,13 +4618,13 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
         <v>96.8</v>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4602,16 +4669,16 @@
         <v>25</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>20</v>
@@ -4626,13 +4693,13 @@
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>0.238</v>
+        <v>0.242</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4691,22 +4758,22 @@
         <v>88.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L24" t="n">
         <v>6.7</v>
       </c>
       <c r="M24" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
       <c r="O24" t="n">
         <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.714</v>
@@ -4715,13 +4782,13 @@
         <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T24" t="n">
         <v>43.7</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
         <v>17.4</v>
@@ -4742,13 +4809,13 @@
         <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC24" t="n">
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4763,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4784,13 +4851,13 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4799,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
         <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.581</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4879,7 +4946,7 @@
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
         <v>0.376</v>
@@ -4891,25 +4958,25 @@
         <v>24.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
         <v>4.7</v>
@@ -4921,31 +4988,31 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB25" t="n">
         <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>10</v>
@@ -4957,10 +5024,10 @@
         <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4969,13 +5036,13 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -4984,10 +5051,10 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5166,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5175,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5309,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5354,7 +5421,7 @@
         <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5530,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="n">
         <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H29" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M29" t="n">
         <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O29" t="n">
         <v>19.2</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S29" t="n">
         <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5643,28 +5710,28 @@
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
         <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -5676,19 +5743,19 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5706,7 +5773,7 @@
         <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
       </c>
       <c r="L30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M30" t="n">
         <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P30" t="n">
         <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
         <v>11</v>
@@ -5810,7 +5877,7 @@
         <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
@@ -5819,7 +5886,7 @@
         <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5828,31 +5895,31 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC30" t="n">
         <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH30" t="n">
         <v>26</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5870,16 +5937,16 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>19</v>
@@ -5906,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.524</v>
+        <v>0.532</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
@@ -5962,46 +6029,46 @@
         <v>38.7</v>
       </c>
       <c r="J31" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L31" t="n">
         <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="N31" t="n">
         <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.728</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
         <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
         <v>23.4</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W31" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6010,19 +6077,19 @@
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6058,19 +6125,19 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6079,10 +6146,10 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,13 +6158,13 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-10-2013-14</t>
+          <t>2014-03-10</t>
         </is>
       </c>
     </row>
